--- a/tests/AP_Upload_Summary/AP Invoice Upload 18-08-23.xlsx
+++ b/tests/AP_Upload_Summary/AP Invoice Upload 18-08-23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KREDX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS_Project\tests\AP_Upload_Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DAA53D-4398-4140-9F34-BEE45BDDB5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99DDA58-A604-4388-B8E9-C9EB9DCCA407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
     <t>ST01</t>
   </si>
   <si>
-    <t>IN320701</t>
+    <t>IN3207007</t>
   </si>
 </sst>
 </file>

--- a/tests/AP_Upload_Summary/AP Invoice Upload 18-08-23.xlsx
+++ b/tests/AP_Upload_Summary/AP Invoice Upload 18-08-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS_Project\tests\AP_Upload_Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99DDA58-A604-4388-B8E9-C9EB9DCCA407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEE533-3B2F-4958-82E8-CA783840FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,10 +199,10 @@
     <t>tax_detail_cess_percent</t>
   </si>
   <si>
-    <t>ST01</t>
-  </si>
-  <si>
-    <t>IN3207007</t>
+    <t>VM6000</t>
+  </si>
+  <si>
+    <t>IN3207011</t>
   </si>
 </sst>
 </file>
